--- a/exposan/biogenic_refinery/results/sysB_Median.xlsx
+++ b/exposan/biogenic_refinery/results/sysB_Median.xlsx
@@ -15701,7 +15701,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="E5">
-        <v>23.31240017939108</v>
+        <v>23.31240017939109</v>
       </c>
       <c r="F5">
         <v>7.561474803118008</v>
@@ -39301,7 +39301,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="OT5">
-        <v>23.31240017939108</v>
+        <v>23.31240017939109</v>
       </c>
       <c r="OU5">
         <v>7.561474803118008</v>
